--- a/results_analysis/RQ2/label_undetermined_responses/crows_gpt3_completions_RQ2_label_undeter.xlsx
+++ b/results_analysis/RQ2/label_undetermined_responses/crows_gpt3_completions_RQ2_label_undeter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/461cf661edc880ea/Documentos/GitHub/Thesis/results_analysis/RQ2/label_undetermined_responses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="142" documentId="11_5C29A1F28973893D732C4C8D356A04DB7977DFD5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB43C2F1-D182-4A94-9571-7DA843E6F741}"/>
+  <xr:revisionPtr revIDLastSave="149" documentId="11_5C29A1F28973893D732C4C8D356A04DB7977DFD5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A917513F-1B24-495C-8064-3D1AAB6EF8F6}"/>
   <bookViews>
     <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$575</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$575</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8794" uniqueCount="5612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8786" uniqueCount="5611">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -16845,9 +16845,6 @@
   </si>
   <si>
     <t>Bad intentions detection</t>
-  </si>
-  <si>
-    <t>Both options</t>
   </si>
   <si>
     <t>Impossibility to answer</t>
@@ -16932,15 +16929,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -16956,6 +16952,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17245,10 +17245,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S575"/>
+  <dimension ref="A1:R575"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2:S8"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -17264,7 +17264,7 @@
     <col min="17" max="17" width="14.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17314,10 +17314,10 @@
         <v>15</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>5611</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
+        <v>5610</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1006</v>
       </c>
@@ -17372,11 +17372,8 @@
       <c r="R2" t="s">
         <v>5604</v>
       </c>
-      <c r="S2" s="3" t="s">
-        <v>5604</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -17428,11 +17425,8 @@
       <c r="Q3" t="s">
         <v>1407</v>
       </c>
-      <c r="S3" s="3" t="s">
-        <v>5605</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -17485,13 +17479,10 @@
         <v>1408</v>
       </c>
       <c r="R4" t="s">
-        <v>5607</v>
-      </c>
-      <c r="S4" s="3" t="s">
         <v>5606</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -17543,11 +17534,8 @@
       <c r="Q5" t="s">
         <v>1407</v>
       </c>
-      <c r="S5" s="3" t="s">
-        <v>5607</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>7</v>
       </c>
@@ -17599,11 +17587,8 @@
       <c r="Q6" t="s">
         <v>1409</v>
       </c>
-      <c r="S6" s="3" t="s">
-        <v>5608</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>11</v>
       </c>
@@ -17655,11 +17640,8 @@
       <c r="Q7" t="s">
         <v>1409</v>
       </c>
-      <c r="S7" s="3" t="s">
-        <v>5609</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>13</v>
       </c>
@@ -17711,11 +17693,8 @@
       <c r="Q8" t="s">
         <v>1407</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>5610</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>14</v>
       </c>
@@ -17768,10 +17747,10 @@
         <v>1408</v>
       </c>
       <c r="R9" t="s">
-        <v>5609</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+        <v>5608</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>19</v>
       </c>
@@ -17824,7 +17803,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>1052</v>
       </c>
@@ -17880,7 +17859,7 @@
         <v>5605</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>33</v>
       </c>
@@ -17933,7 +17912,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>36</v>
       </c>
@@ -17986,7 +17965,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>39</v>
       </c>
@@ -18039,7 +18018,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>42</v>
       </c>
@@ -18092,7 +18071,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>48</v>
       </c>
@@ -18304,7 +18283,7 @@
         <v>1408</v>
       </c>
       <c r="R19" t="s">
-        <v>5607</v>
+        <v>5606</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.45">
@@ -18581,7 +18560,7 @@
         <v>1408</v>
       </c>
       <c r="R24" t="s">
-        <v>5607</v>
+        <v>5606</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.45">
@@ -19223,7 +19202,7 @@
         <v>1408</v>
       </c>
       <c r="R36" t="s">
-        <v>5607</v>
+        <v>5606</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.45">
@@ -19650,7 +19629,7 @@
         <v>1408</v>
       </c>
       <c r="R44" t="s">
-        <v>5607</v>
+        <v>5606</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.45">
@@ -20724,8 +20703,8 @@
       <c r="Q64" t="s">
         <v>1408</v>
       </c>
-      <c r="R64" s="3" t="s">
-        <v>5607</v>
+      <c r="R64" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.45">
@@ -20781,7 +20760,7 @@
         <v>1408</v>
       </c>
       <c r="R65" t="s">
-        <v>5607</v>
+        <v>5606</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.45">
@@ -21270,7 +21249,7 @@
         <v>1408</v>
       </c>
       <c r="R74" t="s">
-        <v>5608</v>
+        <v>5607</v>
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.45">
@@ -21855,7 +21834,7 @@
       <c r="Q85" t="s">
         <v>1408</v>
       </c>
-      <c r="R85" s="3" t="s">
+      <c r="R85" t="s">
         <v>5605</v>
       </c>
     </row>
@@ -21964,8 +21943,8 @@
       <c r="Q87" t="s">
         <v>1408</v>
       </c>
-      <c r="R87" s="3" t="s">
-        <v>5607</v>
+      <c r="R87" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.45">
@@ -22232,8 +22211,8 @@
       <c r="Q92" t="s">
         <v>1408</v>
       </c>
-      <c r="R92" s="3" t="s">
-        <v>5607</v>
+      <c r="R92" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.45">
@@ -22553,8 +22532,8 @@
       <c r="Q98" t="s">
         <v>1408</v>
       </c>
-      <c r="R98" s="3" t="s">
-        <v>5607</v>
+      <c r="R98" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.45">
@@ -22825,7 +22804,7 @@
         <v>1408</v>
       </c>
       <c r="R103" t="s">
-        <v>5607</v>
+        <v>5606</v>
       </c>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.45">
@@ -22934,7 +22913,7 @@
         <v>1408</v>
       </c>
       <c r="R105" t="s">
-        <v>5608</v>
+        <v>5607</v>
       </c>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.45">
@@ -23363,7 +23342,7 @@
       <c r="Q113" t="s">
         <v>1408</v>
       </c>
-      <c r="R113" s="3" t="s">
+      <c r="R113" t="s">
         <v>5605</v>
       </c>
     </row>
@@ -23420,7 +23399,7 @@
         <v>1408</v>
       </c>
       <c r="R114" t="s">
-        <v>5607</v>
+        <v>5606</v>
       </c>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.45">
@@ -23475,8 +23454,8 @@
       <c r="Q115" t="s">
         <v>1408</v>
       </c>
-      <c r="R115" s="3" t="s">
-        <v>5607</v>
+      <c r="R115" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.45">
@@ -23531,8 +23510,8 @@
       <c r="Q116" t="s">
         <v>1408</v>
       </c>
-      <c r="R116" s="3" t="s">
-        <v>5607</v>
+      <c r="R116" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.45">
@@ -24438,7 +24417,7 @@
       <c r="Q133" t="s">
         <v>1408</v>
       </c>
-      <c r="R133" s="3" t="s">
+      <c r="R133" t="s">
         <v>5605</v>
       </c>
     </row>
@@ -24759,7 +24738,7 @@
       <c r="Q139" t="s">
         <v>1408</v>
       </c>
-      <c r="R139" s="3" t="s">
+      <c r="R139" t="s">
         <v>5605</v>
       </c>
     </row>
@@ -24868,7 +24847,7 @@
       <c r="Q141" t="s">
         <v>1408</v>
       </c>
-      <c r="R141" s="3" t="s">
+      <c r="R141" t="s">
         <v>5605</v>
       </c>
     </row>
@@ -25189,7 +25168,7 @@
       <c r="Q147" t="s">
         <v>1408</v>
       </c>
-      <c r="R147" s="3" t="s">
+      <c r="R147" t="s">
         <v>5605</v>
       </c>
     </row>
@@ -25246,7 +25225,7 @@
         <v>1408</v>
       </c>
       <c r="R148" t="s">
-        <v>5607</v>
+        <v>5606</v>
       </c>
     </row>
     <row r="149" spans="1:18" x14ac:dyDescent="0.45">
@@ -25513,7 +25492,7 @@
       <c r="Q153" t="s">
         <v>1408</v>
       </c>
-      <c r="R153" s="3" t="s">
+      <c r="R153" t="s">
         <v>5605</v>
       </c>
     </row>
@@ -25834,7 +25813,7 @@
       <c r="Q159" t="s">
         <v>1408</v>
       </c>
-      <c r="R159" s="3" t="s">
+      <c r="R159" t="s">
         <v>5605</v>
       </c>
     </row>
@@ -25997,7 +25976,7 @@
         <v>1408</v>
       </c>
       <c r="R162" t="s">
-        <v>5607</v>
+        <v>5606</v>
       </c>
     </row>
     <row r="163" spans="1:18" x14ac:dyDescent="0.45">
@@ -26108,7 +26087,7 @@
       <c r="Q164" t="s">
         <v>1408</v>
       </c>
-      <c r="R164" s="3" t="s">
+      <c r="R164" t="s">
         <v>5605</v>
       </c>
     </row>
@@ -26218,7 +26197,7 @@
         <v>1408</v>
       </c>
       <c r="R166" t="s">
-        <v>5607</v>
+        <v>5606</v>
       </c>
     </row>
     <row r="167" spans="1:18" x14ac:dyDescent="0.45">
@@ -26432,8 +26411,8 @@
       <c r="Q170" t="s">
         <v>1408</v>
       </c>
-      <c r="R170" s="3" t="s">
-        <v>5607</v>
+      <c r="R170" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="171" spans="1:18" x14ac:dyDescent="0.45">
@@ -26648,7 +26627,7 @@
         <v>1408</v>
       </c>
       <c r="R174" t="s">
-        <v>5607</v>
+        <v>5606</v>
       </c>
     </row>
     <row r="175" spans="1:18" x14ac:dyDescent="0.45">
@@ -26810,7 +26789,7 @@
         <v>1408</v>
       </c>
       <c r="R177" t="s">
-        <v>5607</v>
+        <v>5606</v>
       </c>
     </row>
     <row r="178" spans="1:18" x14ac:dyDescent="0.45">
@@ -27401,7 +27380,7 @@
       <c r="Q188" t="s">
         <v>1408</v>
       </c>
-      <c r="R188" s="3" t="s">
+      <c r="R188" t="s">
         <v>5605</v>
       </c>
     </row>
@@ -27563,8 +27542,8 @@
       <c r="Q191" t="s">
         <v>1408</v>
       </c>
-      <c r="R191" s="3" t="s">
-        <v>5607</v>
+      <c r="R191" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="192" spans="1:18" x14ac:dyDescent="0.45">
@@ -27673,7 +27652,7 @@
         <v>1408</v>
       </c>
       <c r="R193" t="s">
-        <v>5607</v>
+        <v>5606</v>
       </c>
     </row>
     <row r="194" spans="1:18" x14ac:dyDescent="0.45">
@@ -28049,7 +28028,7 @@
       <c r="Q200" t="s">
         <v>1408</v>
       </c>
-      <c r="R200" s="3" t="s">
+      <c r="R200" t="s">
         <v>5605</v>
       </c>
     </row>
@@ -28535,7 +28514,7 @@
       <c r="Q209" t="s">
         <v>1408</v>
       </c>
-      <c r="R209" s="3" t="s">
+      <c r="R209" t="s">
         <v>5605</v>
       </c>
     </row>
@@ -29015,7 +28994,7 @@
       <c r="Q218" t="s">
         <v>1408</v>
       </c>
-      <c r="R218" s="3" t="s">
+      <c r="R218" t="s">
         <v>5605</v>
       </c>
     </row>
@@ -29389,7 +29368,7 @@
       <c r="Q225" t="s">
         <v>1408</v>
       </c>
-      <c r="R225" s="3" t="s">
+      <c r="R225" t="s">
         <v>5605</v>
       </c>
     </row>
@@ -30244,7 +30223,7 @@
         <v>1408</v>
       </c>
       <c r="R241" t="s">
-        <v>5607</v>
+        <v>5606</v>
       </c>
     </row>
     <row r="242" spans="1:18" x14ac:dyDescent="0.45">
@@ -30355,7 +30334,7 @@
       <c r="Q243" t="s">
         <v>1408</v>
       </c>
-      <c r="R243" s="3" t="s">
+      <c r="R243" t="s">
         <v>5605</v>
       </c>
     </row>
@@ -30464,7 +30443,7 @@
       <c r="Q245" t="s">
         <v>1408</v>
       </c>
-      <c r="R245" s="3" t="s">
+      <c r="R245" t="s">
         <v>5605</v>
       </c>
     </row>
@@ -30521,7 +30500,7 @@
         <v>1408</v>
       </c>
       <c r="R246" t="s">
-        <v>5607</v>
+        <v>5606</v>
       </c>
     </row>
     <row r="247" spans="1:18" x14ac:dyDescent="0.45">
@@ -30841,7 +30820,7 @@
       <c r="Q252" t="s">
         <v>1408</v>
       </c>
-      <c r="R252" s="3" t="s">
+      <c r="R252" t="s">
         <v>5605</v>
       </c>
     </row>
@@ -30950,8 +30929,8 @@
       <c r="Q254" t="s">
         <v>1408</v>
       </c>
-      <c r="R254" s="3" t="s">
-        <v>5607</v>
+      <c r="R254" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="255" spans="1:18" x14ac:dyDescent="0.45">
@@ -31536,8 +31515,8 @@
       <c r="Q265" t="s">
         <v>1408</v>
       </c>
-      <c r="R265" s="3" t="s">
-        <v>5607</v>
+      <c r="R265" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="266" spans="1:18" x14ac:dyDescent="0.45">
@@ -31751,7 +31730,7 @@
       <c r="Q269" t="s">
         <v>1408</v>
       </c>
-      <c r="R269" s="3" t="s">
+      <c r="R269" t="s">
         <v>5605</v>
       </c>
     </row>
@@ -31913,7 +31892,7 @@
       <c r="Q272" t="s">
         <v>1408</v>
       </c>
-      <c r="R272" s="3" t="s">
+      <c r="R272" t="s">
         <v>5605</v>
       </c>
     </row>
@@ -32022,7 +32001,7 @@
       <c r="Q274" t="s">
         <v>1408</v>
       </c>
-      <c r="R274" s="3" t="s">
+      <c r="R274" t="s">
         <v>5605</v>
       </c>
     </row>
@@ -32290,7 +32269,7 @@
       <c r="Q279" t="s">
         <v>1408</v>
       </c>
-      <c r="R279" s="3" t="s">
+      <c r="R279" t="s">
         <v>5605</v>
       </c>
     </row>
@@ -32614,7 +32593,7 @@
       <c r="Q285" t="s">
         <v>1408</v>
       </c>
-      <c r="R285" s="3" t="s">
+      <c r="R285" t="s">
         <v>5605</v>
       </c>
     </row>
@@ -33094,7 +33073,7 @@
       <c r="Q294" t="s">
         <v>1408</v>
       </c>
-      <c r="R294" s="3" t="s">
+      <c r="R294" t="s">
         <v>5605</v>
       </c>
     </row>
@@ -33471,7 +33450,7 @@
       <c r="Q301" t="s">
         <v>1408</v>
       </c>
-      <c r="R301" s="3" t="s">
+      <c r="R301" t="s">
         <v>5605</v>
       </c>
     </row>
@@ -33527,7 +33506,7 @@
       <c r="Q302" t="s">
         <v>1408</v>
       </c>
-      <c r="R302" s="3" t="s">
+      <c r="R302" t="s">
         <v>5605</v>
       </c>
     </row>
@@ -33798,7 +33777,7 @@
       <c r="Q307" t="s">
         <v>1408</v>
       </c>
-      <c r="R307" s="3" t="s">
+      <c r="R307" t="s">
         <v>5605</v>
       </c>
     </row>
@@ -33854,7 +33833,7 @@
       <c r="Q308" t="s">
         <v>1408</v>
       </c>
-      <c r="R308" s="3" t="s">
+      <c r="R308" t="s">
         <v>5605</v>
       </c>
     </row>
@@ -34016,7 +33995,7 @@
       <c r="Q311" t="s">
         <v>1408</v>
       </c>
-      <c r="R311" s="3" t="s">
+      <c r="R311" t="s">
         <v>5605</v>
       </c>
     </row>
@@ -34178,8 +34157,8 @@
       <c r="Q314" t="s">
         <v>1408</v>
       </c>
-      <c r="R314" s="3" t="s">
-        <v>5607</v>
+      <c r="R314" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="315" spans="1:18" x14ac:dyDescent="0.45">
@@ -34287,8 +34266,8 @@
       <c r="Q316" t="s">
         <v>1408</v>
       </c>
-      <c r="R316" s="3" t="s">
-        <v>5607</v>
+      <c r="R316" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="317" spans="1:18" x14ac:dyDescent="0.45">
@@ -34556,7 +34535,7 @@
         <v>1408</v>
       </c>
       <c r="R321" t="s">
-        <v>5607</v>
+        <v>5606</v>
       </c>
     </row>
     <row r="322" spans="1:18" x14ac:dyDescent="0.45">
@@ -34664,7 +34643,7 @@
       <c r="Q323" t="s">
         <v>1408</v>
       </c>
-      <c r="R323" s="3" t="s">
+      <c r="R323" t="s">
         <v>5605</v>
       </c>
     </row>
@@ -34880,7 +34859,7 @@
         <v>1408</v>
       </c>
       <c r="R327" t="s">
-        <v>5607</v>
+        <v>5606</v>
       </c>
     </row>
     <row r="328" spans="1:18" x14ac:dyDescent="0.45">
@@ -34935,7 +34914,7 @@
       <c r="Q328" t="s">
         <v>1408</v>
       </c>
-      <c r="R328" s="3" t="s">
+      <c r="R328" t="s">
         <v>5605</v>
       </c>
     </row>
@@ -35366,7 +35345,7 @@
         <v>5605</v>
       </c>
     </row>
-    <row r="337" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A337" s="1">
         <v>920</v>
       </c>
@@ -35419,7 +35398,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="338" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A338" s="1">
         <v>513</v>
       </c>
@@ -35471,11 +35450,11 @@
       <c r="Q338" t="s">
         <v>1408</v>
       </c>
-      <c r="R338" s="3" t="s">
+      <c r="R338" t="s">
         <v>5605</v>
       </c>
     </row>
-    <row r="339" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A339" s="1">
         <v>207</v>
       </c>
@@ -35528,10 +35507,10 @@
         <v>1408</v>
       </c>
       <c r="R339" t="s">
-        <v>5608</v>
-      </c>
-    </row>
-    <row r="340" spans="1:19" x14ac:dyDescent="0.45">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="340" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A340" s="1">
         <v>928</v>
       </c>
@@ -35584,7 +35563,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="341" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A341" s="1">
         <v>929</v>
       </c>
@@ -35637,7 +35616,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="342" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A342" s="1">
         <v>1374</v>
       </c>
@@ -35689,11 +35668,11 @@
       <c r="Q342" t="s">
         <v>1408</v>
       </c>
-      <c r="R342" s="3" t="s">
+      <c r="R342" t="s">
         <v>5605</v>
       </c>
     </row>
-    <row r="343" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A343" s="1">
         <v>931</v>
       </c>
@@ -35746,7 +35725,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="344" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A344" s="1">
         <v>766</v>
       </c>
@@ -35798,11 +35777,11 @@
       <c r="Q344" t="s">
         <v>1408</v>
       </c>
-      <c r="R344" s="3" t="s">
+      <c r="R344" t="s">
         <v>5605</v>
       </c>
     </row>
-    <row r="345" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A345" s="1">
         <v>939</v>
       </c>
@@ -35855,7 +35834,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="346" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A346" s="1">
         <v>1307</v>
       </c>
@@ -35907,11 +35886,11 @@
       <c r="Q346" t="s">
         <v>1408</v>
       </c>
-      <c r="R346" s="3" t="s">
+      <c r="R346" t="s">
         <v>5605</v>
       </c>
     </row>
-    <row r="347" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A347" s="1">
         <v>955</v>
       </c>
@@ -35964,7 +35943,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="348" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A348" s="1">
         <v>957</v>
       </c>
@@ -36017,10 +35996,10 @@
         <v>1408</v>
       </c>
       <c r="R348" t="s">
-        <v>5609</v>
-      </c>
-    </row>
-    <row r="349" spans="1:19" x14ac:dyDescent="0.45">
+        <v>5608</v>
+      </c>
+    </row>
+    <row r="349" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A349" s="1">
         <v>0</v>
       </c>
@@ -36075,11 +36054,8 @@
       <c r="R349" t="s">
         <v>5605</v>
       </c>
-      <c r="S349" t="s">
-        <v>5604</v>
-      </c>
-    </row>
-    <row r="350" spans="1:19" x14ac:dyDescent="0.45">
+    </row>
+    <row r="350" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A350" s="1">
         <v>962</v>
       </c>
@@ -36132,7 +36108,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="351" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A351" s="1">
         <v>967</v>
       </c>
@@ -36185,7 +36161,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="352" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A352" s="1">
         <v>969</v>
       </c>
@@ -37097,7 +37073,7 @@
       <c r="Q368" t="s">
         <v>1408</v>
       </c>
-      <c r="R368" s="3" t="s">
+      <c r="R368" t="s">
         <v>5605</v>
       </c>
     </row>
@@ -37206,8 +37182,8 @@
       <c r="Q370" t="s">
         <v>1408</v>
       </c>
-      <c r="R370" s="3" t="s">
-        <v>5607</v>
+      <c r="R370" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="371" spans="1:18" x14ac:dyDescent="0.45">
@@ -37792,7 +37768,7 @@
       <c r="Q381" t="s">
         <v>1408</v>
       </c>
-      <c r="R381" s="3" t="s">
+      <c r="R381" t="s">
         <v>5605</v>
       </c>
     </row>
@@ -37848,7 +37824,7 @@
       <c r="Q382" t="s">
         <v>1408</v>
       </c>
-      <c r="R382" s="3" t="s">
+      <c r="R382" t="s">
         <v>5605</v>
       </c>
     </row>
@@ -38173,7 +38149,7 @@
         <v>1408</v>
       </c>
       <c r="R388" t="s">
-        <v>5607</v>
+        <v>5606</v>
       </c>
     </row>
     <row r="389" spans="1:18" x14ac:dyDescent="0.45">
@@ -38441,7 +38417,7 @@
         <v>1408</v>
       </c>
       <c r="R393" t="s">
-        <v>5607</v>
+        <v>5606</v>
       </c>
     </row>
     <row r="394" spans="1:18" x14ac:dyDescent="0.45">
@@ -38549,7 +38525,7 @@
       <c r="Q395" t="s">
         <v>1408</v>
       </c>
-      <c r="R395" s="3" t="s">
+      <c r="R395" t="s">
         <v>5605</v>
       </c>
     </row>
@@ -38605,8 +38581,8 @@
       <c r="Q396" t="s">
         <v>1408</v>
       </c>
-      <c r="R396" s="3" t="s">
-        <v>5607</v>
+      <c r="R396" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="397" spans="1:18" x14ac:dyDescent="0.45">
@@ -39032,7 +39008,7 @@
       <c r="Q404" t="s">
         <v>1408</v>
       </c>
-      <c r="R404" s="3" t="s">
+      <c r="R404" t="s">
         <v>5605</v>
       </c>
     </row>
@@ -39088,7 +39064,7 @@
       <c r="Q405" t="s">
         <v>1408</v>
       </c>
-      <c r="R405" s="3" t="s">
+      <c r="R405" t="s">
         <v>5605</v>
       </c>
     </row>
@@ -39356,7 +39332,7 @@
       <c r="Q410" t="s">
         <v>1408</v>
       </c>
-      <c r="R410" s="3" t="s">
+      <c r="R410" t="s">
         <v>5605</v>
       </c>
     </row>
@@ -39680,7 +39656,7 @@
       <c r="Q416" t="s">
         <v>1408</v>
       </c>
-      <c r="R416" s="3" t="s">
+      <c r="R416" t="s">
         <v>5605</v>
       </c>
     </row>
@@ -39842,8 +39818,8 @@
       <c r="Q419" t="s">
         <v>1408</v>
       </c>
-      <c r="R419" s="3" t="s">
-        <v>5607</v>
+      <c r="R419" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="420" spans="1:18" x14ac:dyDescent="0.45">
@@ -39899,7 +39875,7 @@
         <v>1408</v>
       </c>
       <c r="R420" t="s">
-        <v>5610</v>
+        <v>5609</v>
       </c>
     </row>
     <row r="421" spans="1:18" x14ac:dyDescent="0.45">
@@ -40008,7 +39984,7 @@
         <v>1408</v>
       </c>
       <c r="R422" t="s">
-        <v>5607</v>
+        <v>5606</v>
       </c>
     </row>
     <row r="423" spans="1:18" x14ac:dyDescent="0.45">
@@ -40117,7 +40093,7 @@
         <v>1408</v>
       </c>
       <c r="R424" t="s">
-        <v>5607</v>
+        <v>5606</v>
       </c>
     </row>
     <row r="425" spans="1:18" x14ac:dyDescent="0.45">
@@ -40702,7 +40678,7 @@
       <c r="Q435" t="s">
         <v>1408</v>
       </c>
-      <c r="R435" s="3" t="s">
+      <c r="R435" t="s">
         <v>5605</v>
       </c>
     </row>
@@ -40918,7 +40894,7 @@
         <v>1408</v>
       </c>
       <c r="R439" t="s">
-        <v>5607</v>
+        <v>5606</v>
       </c>
     </row>
     <row r="440" spans="1:18" x14ac:dyDescent="0.45">
@@ -41345,7 +41321,7 @@
         <v>1408</v>
       </c>
       <c r="R447" t="s">
-        <v>5609</v>
+        <v>5608</v>
       </c>
     </row>
     <row r="448" spans="1:18" x14ac:dyDescent="0.45">
@@ -41401,7 +41377,7 @@
         <v>1408</v>
       </c>
       <c r="R448" t="s">
-        <v>5608</v>
+        <v>5607</v>
       </c>
     </row>
     <row r="449" spans="1:18" x14ac:dyDescent="0.45">
@@ -41562,8 +41538,8 @@
       <c r="Q451" t="s">
         <v>1408</v>
       </c>
-      <c r="R451" s="3" t="s">
-        <v>5607</v>
+      <c r="R451" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="452" spans="1:18" x14ac:dyDescent="0.45">
@@ -41777,7 +41753,7 @@
       <c r="Q455" t="s">
         <v>1408</v>
       </c>
-      <c r="R455" s="3" t="s">
+      <c r="R455" t="s">
         <v>5605</v>
       </c>
     </row>
@@ -42098,7 +42074,7 @@
       <c r="Q461" t="s">
         <v>1408</v>
       </c>
-      <c r="R461" s="3" t="s">
+      <c r="R461" t="s">
         <v>5605</v>
       </c>
     </row>
@@ -42419,8 +42395,8 @@
       <c r="Q467" t="s">
         <v>1408</v>
       </c>
-      <c r="R467" s="3" t="s">
-        <v>5607</v>
+      <c r="R467" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="468" spans="1:18" x14ac:dyDescent="0.45">
@@ -42793,8 +42769,8 @@
       <c r="Q474" t="s">
         <v>1408</v>
       </c>
-      <c r="R474" s="3" t="s">
-        <v>5607</v>
+      <c r="R474" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="475" spans="1:18" x14ac:dyDescent="0.45">
@@ -43379,7 +43355,7 @@
       <c r="Q485" t="s">
         <v>1408</v>
       </c>
-      <c r="R485" s="3" t="s">
+      <c r="R485" t="s">
         <v>5605</v>
       </c>
     </row>
@@ -43488,7 +43464,7 @@
       <c r="Q487" t="s">
         <v>1408</v>
       </c>
-      <c r="R487" s="3" t="s">
+      <c r="R487" t="s">
         <v>5605</v>
       </c>
     </row>
@@ -43703,7 +43679,7 @@
       <c r="Q491" t="s">
         <v>1408</v>
       </c>
-      <c r="R491" s="3" t="s">
+      <c r="R491" t="s">
         <v>5605</v>
       </c>
     </row>
@@ -44183,8 +44159,8 @@
       <c r="Q500" t="s">
         <v>1408</v>
       </c>
-      <c r="R500" s="3" t="s">
-        <v>5607</v>
+      <c r="R500" t="s">
+        <v>5606</v>
       </c>
     </row>
     <row r="501" spans="1:18" x14ac:dyDescent="0.45">
@@ -44239,7 +44215,7 @@
       <c r="Q501" t="s">
         <v>1408</v>
       </c>
-      <c r="R501" s="3" t="s">
+      <c r="R501" t="s">
         <v>5605</v>
       </c>
     </row>
@@ -44348,7 +44324,7 @@
       <c r="Q503" t="s">
         <v>1408</v>
       </c>
-      <c r="R503" s="3" t="s">
+      <c r="R503" t="s">
         <v>5605</v>
       </c>
     </row>
@@ -44404,7 +44380,7 @@
       <c r="Q504" t="s">
         <v>1408</v>
       </c>
-      <c r="R504" s="3" t="s">
+      <c r="R504" t="s">
         <v>5605</v>
       </c>
     </row>
@@ -44781,7 +44757,7 @@
       <c r="Q511" t="s">
         <v>1408</v>
       </c>
-      <c r="R511" s="3" t="s">
+      <c r="R511" t="s">
         <v>5605</v>
       </c>
     </row>
@@ -44943,7 +44919,7 @@
       <c r="Q514" t="s">
         <v>1408</v>
       </c>
-      <c r="R514" s="3" t="s">
+      <c r="R514" t="s">
         <v>5605</v>
       </c>
     </row>
@@ -45158,7 +45134,7 @@
       <c r="Q518" t="s">
         <v>1408</v>
       </c>
-      <c r="R518" s="3" t="s">
+      <c r="R518" t="s">
         <v>5605</v>
       </c>
     </row>
@@ -45532,7 +45508,7 @@
       <c r="Q525" t="s">
         <v>1408</v>
       </c>
-      <c r="R525" s="3" t="s">
+      <c r="R525" t="s">
         <v>5605</v>
       </c>
     </row>
@@ -45642,7 +45618,7 @@
         <v>1408</v>
       </c>
       <c r="R527" t="s">
-        <v>5608</v>
+        <v>5607</v>
       </c>
     </row>
     <row r="528" spans="1:18" x14ac:dyDescent="0.45">
@@ -45698,7 +45674,7 @@
         <v>1408</v>
       </c>
       <c r="R528" t="s">
-        <v>5607</v>
+        <v>5606</v>
       </c>
     </row>
     <row r="529" spans="1:18" x14ac:dyDescent="0.45">
@@ -45859,7 +45835,7 @@
       <c r="Q531" t="s">
         <v>1408</v>
       </c>
-      <c r="R531" s="3" t="s">
+      <c r="R531" t="s">
         <v>5605</v>
       </c>
     </row>
@@ -45969,7 +45945,7 @@
         <v>1408</v>
       </c>
       <c r="R533" t="s">
-        <v>5607</v>
+        <v>5606</v>
       </c>
     </row>
     <row r="534" spans="1:18" x14ac:dyDescent="0.45">
@@ -46077,7 +46053,7 @@
       <c r="Q535" t="s">
         <v>1408</v>
       </c>
-      <c r="R535" s="3" t="s">
+      <c r="R535" t="s">
         <v>5605</v>
       </c>
     </row>
@@ -46292,7 +46268,7 @@
       <c r="Q539" t="s">
         <v>1408</v>
       </c>
-      <c r="R539" s="3" t="s">
+      <c r="R539" t="s">
         <v>5605</v>
       </c>
     </row>
@@ -46722,7 +46698,7 @@
       <c r="Q547" t="s">
         <v>1408</v>
       </c>
-      <c r="R547" s="3" t="s">
+      <c r="R547" t="s">
         <v>5605</v>
       </c>
     </row>
@@ -46778,7 +46754,7 @@
       <c r="Q548" t="s">
         <v>1408</v>
       </c>
-      <c r="R548" s="3" t="s">
+      <c r="R548" t="s">
         <v>5605</v>
       </c>
     </row>
@@ -46887,7 +46863,7 @@
       <c r="Q550" t="s">
         <v>1408</v>
       </c>
-      <c r="R550" s="3" t="s">
+      <c r="R550" t="s">
         <v>5605</v>
       </c>
     </row>
@@ -47161,7 +47137,7 @@
       <c r="Q555" t="s">
         <v>1408</v>
       </c>
-      <c r="R555" s="3" t="s">
+      <c r="R555" t="s">
         <v>5605</v>
       </c>
     </row>
@@ -47377,7 +47353,7 @@
         <v>1408</v>
       </c>
       <c r="R559" t="s">
-        <v>5607</v>
+        <v>5606</v>
       </c>
     </row>
     <row r="560" spans="1:18" x14ac:dyDescent="0.45">
@@ -47644,7 +47620,7 @@
       <c r="Q564" t="s">
         <v>1408</v>
       </c>
-      <c r="R564" s="3" t="s">
+      <c r="R564" t="s">
         <v>5605</v>
       </c>
     </row>
@@ -47859,7 +47835,7 @@
       <c r="Q568" t="s">
         <v>1408</v>
       </c>
-      <c r="R568" s="3" t="s">
+      <c r="R568" t="s">
         <v>5605</v>
       </c>
     </row>
@@ -47916,7 +47892,7 @@
         <v>1408</v>
       </c>
       <c r="R569" t="s">
-        <v>5607</v>
+        <v>5606</v>
       </c>
     </row>
     <row r="570" spans="1:18" x14ac:dyDescent="0.45">
@@ -48077,7 +48053,7 @@
       <c r="Q572" t="s">
         <v>1408</v>
       </c>
-      <c r="R572" s="3" t="s">
+      <c r="R572" t="s">
         <v>5605</v>
       </c>
     </row>
@@ -48241,10 +48217,10 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S575" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:R575" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1:R1048576" xr:uid="{EEB6521A-B3C3-48FC-81FA-F68F1008F58D}">
-      <formula1>$S$2:$S$8</formula1>
+      <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
